--- a/OrthographyProfiles/OrthographyProfiles.xlsx
+++ b/OrthographyProfiles/OrthographyProfiles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/auderset/Documents/GitHub/mixteca/OrthographyProfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360D4F2A-5FB9-344E-BB2D-24DE77635DF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6551BBF5-3C75-7944-A530-74F54367986B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29040" yWindow="460" windowWidth="19780" windowHeight="19680" tabRatio="500" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2120" yWindow="460" windowWidth="21600" windowHeight="16380" tabRatio="500" firstSheet="19" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alexander1980_alac11" sheetId="1" r:id="rId1"/>
@@ -19,31 +19,33 @@
     <sheet name="daly1977_peno11" sheetId="4" r:id="rId4"/>
     <sheet name="dyk-stoudt1965_gran11" sheetId="5" r:id="rId5"/>
     <sheet name="farris1992_yoso11" sheetId="6" r:id="rId6"/>
-    <sheet name="johnson1988_jami11" sheetId="7" r:id="rId7"/>
-    <sheet name="macaulay1996_chal11" sheetId="8" r:id="rId8"/>
-    <sheet name="mak1953_gran11-atat11" sheetId="9" r:id="rId9"/>
-    <sheet name="mak1958_ocot11" sheetId="10" r:id="rId10"/>
-    <sheet name="north-shields1976_prog12" sheetId="11" r:id="rId11"/>
-    <sheet name="overholt1961_metl11" sheetId="12" r:id="rId12"/>
-    <sheet name="pankratz-pike1967_ayut11" sheetId="13" r:id="rId13"/>
-    <sheet name="pensinger1974_jami11" sheetId="14" r:id="rId14"/>
-    <sheet name="pike-cowan1967_huaj11" sheetId="15" r:id="rId15"/>
-    <sheet name="pike-ibach1978_mixt11" sheetId="16" r:id="rId16"/>
-    <sheet name="pike-oram1976_diux11" sheetId="17" r:id="rId17"/>
-    <sheet name="pike-small1974_coat11" sheetId="18" r:id="rId18"/>
-    <sheet name="schultze-jena1938_cahu11" sheetId="19" r:id="rId19"/>
-    <sheet name="shields1988_prog12" sheetId="20" r:id="rId20"/>
-    <sheet name="zylstra1980_alac11" sheetId="21" r:id="rId21"/>
-    <sheet name="zylstra1991_alac11" sheetId="22" r:id="rId22"/>
-    <sheet name="durr1987" sheetId="23" r:id="rId23"/>
-    <sheet name="josserand1983" sheetId="24" r:id="rId24"/>
+    <sheet name="good1979_chic12" sheetId="25" r:id="rId7"/>
+    <sheet name="johnson1988_jami11" sheetId="7" r:id="rId8"/>
+    <sheet name="macaulay1996_chal11" sheetId="8" r:id="rId9"/>
+    <sheet name="mak1953_gran11-atat11" sheetId="9" r:id="rId10"/>
+    <sheet name="mak1958_ocot11" sheetId="10" r:id="rId11"/>
+    <sheet name="north-shields1976_prog12" sheetId="11" r:id="rId12"/>
+    <sheet name="overholt1961_metl11" sheetId="12" r:id="rId13"/>
+    <sheet name="pankratz-pike1967_ayut11" sheetId="13" r:id="rId14"/>
+    <sheet name="pensinger1974_jami11" sheetId="14" r:id="rId15"/>
+    <sheet name="pike-cowan1967_huaj11" sheetId="15" r:id="rId16"/>
+    <sheet name="pike-ibach1978_mixt11" sheetId="16" r:id="rId17"/>
+    <sheet name="pike-oram1976_diux11" sheetId="17" r:id="rId18"/>
+    <sheet name="pike-small1974_coat11" sheetId="18" r:id="rId19"/>
+    <sheet name="schultze-jena1938_cahu11" sheetId="19" r:id="rId20"/>
+    <sheet name="shields1988_prog12" sheetId="20" r:id="rId21"/>
+    <sheet name="stark1986_colo11" sheetId="26" r:id="rId22"/>
+    <sheet name="zylstra1980_alac11" sheetId="21" r:id="rId23"/>
+    <sheet name="zylstra1991_alac11" sheetId="22" r:id="rId24"/>
+    <sheet name="durr1987" sheetId="23" r:id="rId25"/>
+    <sheet name="josserand1983" sheetId="24" r:id="rId26"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">alexander1980_alac11!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">bradley1970_jica11!$A$1:$E$53</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">daly1977_peno11!$B$1:$B$168</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4">'dyk-stoudt1965_gran11'!$B$1:$B$111</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'pike-ibach1978_mixt11'!$A$1:$E$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'pike-ibach1978_mixt11'!$A$1:$E$39</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5605" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5767" uniqueCount="935">
   <si>
     <t>Grapheme</t>
   </si>
@@ -2773,13 +2775,100 @@
   </si>
   <si>
     <t>not sure, best guess</t>
+  </si>
+  <si>
+    <t>chr</t>
+  </si>
+  <si>
+    <t>ë</t>
+  </si>
+  <si>
+    <t>ï</t>
+  </si>
+  <si>
+    <t>ïn</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>nn</t>
+  </si>
+  <si>
+    <t>ts</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>mː</t>
+  </si>
+  <si>
+    <t>nː</t>
+  </si>
+  <si>
+    <t>unmarked is also tone 3, needs to be integrated with rule</t>
+  </si>
+  <si>
+    <t>before vowel, needs rule</t>
+  </si>
+  <si>
+    <t>t͡ʂ</t>
+  </si>
+  <si>
+    <t>jː</t>
+  </si>
+  <si>
+    <t>best guess based on phonological description</t>
+  </si>
+  <si>
+    <t>jn</t>
+  </si>
+  <si>
+    <t>j̃</t>
+  </si>
+  <si>
+    <t>is an allophone of j, so maybe should just be j</t>
+  </si>
+  <si>
+    <t>lː</t>
+  </si>
+  <si>
+    <t>not sure</t>
+  </si>
+  <si>
+    <t>ʑ</t>
+  </si>
+  <si>
+    <t>for some also ɾ or even r</t>
+  </si>
+  <si>
+    <t>could also be tɕ</t>
+  </si>
+  <si>
+    <t>hu</t>
+  </si>
+  <si>
+    <t>huu</t>
+  </si>
+  <si>
+    <t>wː</t>
+  </si>
+  <si>
+    <t>ɯ</t>
+  </si>
+  <si>
+    <t>ɯ̃</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2795,12 +2884,23 @@
     <font>
       <sz val="11"/>
       <name val="Linux Libertine"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Linux Libertine"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Linux Libertine"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2823,7 +2923,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2834,6 +2934,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4476,10 +4579,528 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:AMJ39"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1024" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:AMJ39">
+    <sortCondition ref="C2:C39"/>
+    <sortCondition ref="B2:B39"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AMJ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -4911,7 +5532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AMJ104"/>
   <sheetViews>
@@ -6171,7 +6792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AMJ51"/>
   <sheetViews>
@@ -6802,7 +7423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AMJ35"/>
   <sheetViews>
@@ -7284,7 +7905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:AMJ109"/>
   <sheetViews>
@@ -8551,7 +9172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AMJ35"/>
   <sheetViews>
@@ -8992,7 +9613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:AMJ36"/>
   <sheetViews>
@@ -9434,7 +10055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:AMJ55"/>
   <sheetViews>
@@ -10069,7 +10690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:AMJ67"/>
   <sheetViews>
@@ -11922,471 +12543,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:AMJ39"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1024" width="11.5" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="B21" s="2">
-        <v>5</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ98"/>
@@ -13517,11 +13673,476 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:AMJ39"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1024" width="11.5" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B21" s="2">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:AMJ98"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14629,7 +15250,42 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50BDDB5B-0B55-A64B-84C7-13D4CFC17C1A}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:AMJ50"/>
   <sheetViews>
@@ -15220,7 +15876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:AMJ97"/>
   <sheetViews>
@@ -16331,7 +16987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:AMJ90"/>
   <sheetViews>
@@ -17785,7 +18441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:AMJ19"/>
   <sheetViews>
@@ -20571,7 +21227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ111"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -21831,7 +22487,7 @@
   <dimension ref="A1:AMJ116"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23142,6 +23798,1731 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3DC8BB-3CD1-C443-B76D-FAD255D7212D}">
+  <dimension ref="A1:AMJ50"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="6"/>
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="6"/>
+      <c r="AV1" s="6"/>
+      <c r="AW1" s="6"/>
+      <c r="AX1" s="6"/>
+      <c r="AY1" s="6"/>
+      <c r="AZ1" s="6"/>
+      <c r="BA1" s="6"/>
+      <c r="BB1" s="6"/>
+      <c r="BC1" s="6"/>
+      <c r="BD1" s="6"/>
+      <c r="BE1" s="6"/>
+      <c r="BF1" s="6"/>
+      <c r="BG1" s="6"/>
+      <c r="BH1" s="6"/>
+      <c r="BI1" s="6"/>
+      <c r="BJ1" s="6"/>
+      <c r="BK1" s="6"/>
+      <c r="BL1" s="6"/>
+      <c r="BM1" s="6"/>
+      <c r="BN1" s="6"/>
+      <c r="BO1" s="6"/>
+      <c r="BP1" s="6"/>
+      <c r="BQ1" s="6"/>
+      <c r="BR1" s="6"/>
+      <c r="BS1" s="6"/>
+      <c r="BT1" s="6"/>
+      <c r="BU1" s="6"/>
+      <c r="BV1" s="6"/>
+      <c r="BW1" s="6"/>
+      <c r="BX1" s="6"/>
+      <c r="BY1" s="6"/>
+      <c r="BZ1" s="6"/>
+      <c r="CA1" s="6"/>
+      <c r="CB1" s="6"/>
+      <c r="CC1" s="6"/>
+      <c r="CD1" s="6"/>
+      <c r="CE1" s="6"/>
+      <c r="CF1" s="6"/>
+      <c r="CG1" s="6"/>
+      <c r="CH1" s="6"/>
+      <c r="CI1" s="6"/>
+      <c r="CJ1" s="6"/>
+      <c r="CK1" s="6"/>
+      <c r="CL1" s="6"/>
+      <c r="CM1" s="6"/>
+      <c r="CN1" s="6"/>
+      <c r="CO1" s="6"/>
+      <c r="CP1" s="6"/>
+      <c r="CQ1" s="6"/>
+      <c r="CR1" s="6"/>
+      <c r="CS1" s="6"/>
+      <c r="CT1" s="6"/>
+      <c r="CU1" s="6"/>
+      <c r="CV1" s="6"/>
+      <c r="CW1" s="6"/>
+      <c r="CX1" s="6"/>
+      <c r="CY1" s="6"/>
+      <c r="CZ1" s="6"/>
+      <c r="DA1" s="6"/>
+      <c r="DB1" s="6"/>
+      <c r="DC1" s="6"/>
+      <c r="DD1" s="6"/>
+      <c r="DE1" s="6"/>
+      <c r="DF1" s="6"/>
+      <c r="DG1" s="6"/>
+      <c r="DH1" s="6"/>
+      <c r="DI1" s="6"/>
+      <c r="DJ1" s="6"/>
+      <c r="DK1" s="6"/>
+      <c r="DL1" s="6"/>
+      <c r="DM1" s="6"/>
+      <c r="DN1" s="6"/>
+      <c r="DO1" s="6"/>
+      <c r="DP1" s="6"/>
+      <c r="DQ1" s="6"/>
+      <c r="DR1" s="6"/>
+      <c r="DS1" s="6"/>
+      <c r="DT1" s="6"/>
+      <c r="DU1" s="6"/>
+      <c r="DV1" s="6"/>
+      <c r="DW1" s="6"/>
+      <c r="DX1" s="6"/>
+      <c r="DY1" s="6"/>
+      <c r="DZ1" s="6"/>
+      <c r="EA1" s="6"/>
+      <c r="EB1" s="6"/>
+      <c r="EC1" s="6"/>
+      <c r="ED1" s="6"/>
+      <c r="EE1" s="6"/>
+      <c r="EF1" s="6"/>
+      <c r="EG1" s="6"/>
+      <c r="EH1" s="6"/>
+      <c r="EI1" s="6"/>
+      <c r="EJ1" s="6"/>
+      <c r="EK1" s="6"/>
+      <c r="EL1" s="6"/>
+      <c r="EM1" s="6"/>
+      <c r="EN1" s="6"/>
+      <c r="EO1" s="6"/>
+      <c r="EP1" s="6"/>
+      <c r="EQ1" s="6"/>
+      <c r="ER1" s="6"/>
+      <c r="ES1" s="6"/>
+      <c r="ET1" s="6"/>
+      <c r="EU1" s="6"/>
+      <c r="EV1" s="6"/>
+      <c r="EW1" s="6"/>
+      <c r="EX1" s="6"/>
+      <c r="EY1" s="6"/>
+      <c r="EZ1" s="6"/>
+      <c r="FA1" s="6"/>
+      <c r="FB1" s="6"/>
+      <c r="FC1" s="6"/>
+      <c r="FD1" s="6"/>
+      <c r="FE1" s="6"/>
+      <c r="FF1" s="6"/>
+      <c r="FG1" s="6"/>
+      <c r="FH1" s="6"/>
+      <c r="FI1" s="6"/>
+      <c r="FJ1" s="6"/>
+      <c r="FK1" s="6"/>
+      <c r="FL1" s="6"/>
+      <c r="FM1" s="6"/>
+      <c r="FN1" s="6"/>
+      <c r="FO1" s="6"/>
+      <c r="FP1" s="6"/>
+      <c r="FQ1" s="6"/>
+      <c r="FR1" s="6"/>
+      <c r="FS1" s="6"/>
+      <c r="FT1" s="6"/>
+      <c r="FU1" s="6"/>
+      <c r="FV1" s="6"/>
+      <c r="FW1" s="6"/>
+      <c r="FX1" s="6"/>
+      <c r="FY1" s="6"/>
+      <c r="FZ1" s="6"/>
+      <c r="GA1" s="6"/>
+      <c r="GB1" s="6"/>
+      <c r="GC1" s="6"/>
+      <c r="GD1" s="6"/>
+      <c r="GE1" s="6"/>
+      <c r="GF1" s="6"/>
+      <c r="GG1" s="6"/>
+      <c r="GH1" s="6"/>
+      <c r="GI1" s="6"/>
+      <c r="GJ1" s="6"/>
+      <c r="GK1" s="6"/>
+      <c r="GL1" s="6"/>
+      <c r="GM1" s="6"/>
+      <c r="GN1" s="6"/>
+      <c r="GO1" s="6"/>
+      <c r="GP1" s="6"/>
+      <c r="GQ1" s="6"/>
+      <c r="GR1" s="6"/>
+      <c r="GS1" s="6"/>
+      <c r="GT1" s="6"/>
+      <c r="GU1" s="6"/>
+      <c r="GV1" s="6"/>
+      <c r="GW1" s="6"/>
+      <c r="GX1" s="6"/>
+      <c r="GY1" s="6"/>
+      <c r="GZ1" s="6"/>
+      <c r="HA1" s="6"/>
+      <c r="HB1" s="6"/>
+      <c r="HC1" s="6"/>
+      <c r="HD1" s="6"/>
+      <c r="HE1" s="6"/>
+      <c r="HF1" s="6"/>
+      <c r="HG1" s="6"/>
+      <c r="HH1" s="6"/>
+      <c r="HI1" s="6"/>
+      <c r="HJ1" s="6"/>
+      <c r="HK1" s="6"/>
+      <c r="HL1" s="6"/>
+      <c r="HM1" s="6"/>
+      <c r="HN1" s="6"/>
+      <c r="HO1" s="6"/>
+      <c r="HP1" s="6"/>
+      <c r="HQ1" s="6"/>
+      <c r="HR1" s="6"/>
+      <c r="HS1" s="6"/>
+      <c r="HT1" s="6"/>
+      <c r="HU1" s="6"/>
+      <c r="HV1" s="6"/>
+      <c r="HW1" s="6"/>
+      <c r="HX1" s="6"/>
+      <c r="HY1" s="6"/>
+      <c r="HZ1" s="6"/>
+      <c r="IA1" s="6"/>
+      <c r="IB1" s="6"/>
+      <c r="IC1" s="6"/>
+      <c r="ID1" s="6"/>
+      <c r="IE1" s="6"/>
+      <c r="IF1" s="6"/>
+      <c r="IG1" s="6"/>
+      <c r="IH1" s="6"/>
+      <c r="II1" s="6"/>
+      <c r="IJ1" s="6"/>
+      <c r="IK1" s="6"/>
+      <c r="IL1" s="6"/>
+      <c r="IM1" s="6"/>
+      <c r="IN1" s="6"/>
+      <c r="IO1" s="6"/>
+      <c r="IP1" s="6"/>
+      <c r="IQ1" s="6"/>
+      <c r="IR1" s="6"/>
+      <c r="IS1" s="6"/>
+      <c r="IT1" s="6"/>
+      <c r="IU1" s="6"/>
+      <c r="IV1" s="6"/>
+      <c r="IW1" s="6"/>
+      <c r="IX1" s="6"/>
+      <c r="IY1" s="6"/>
+      <c r="IZ1" s="6"/>
+      <c r="JA1" s="6"/>
+      <c r="JB1" s="6"/>
+      <c r="JC1" s="6"/>
+      <c r="JD1" s="6"/>
+      <c r="JE1" s="6"/>
+      <c r="JF1" s="6"/>
+      <c r="JG1" s="6"/>
+      <c r="JH1" s="6"/>
+      <c r="JI1" s="6"/>
+      <c r="JJ1" s="6"/>
+      <c r="JK1" s="6"/>
+      <c r="JL1" s="6"/>
+      <c r="JM1" s="6"/>
+      <c r="JN1" s="6"/>
+      <c r="JO1" s="6"/>
+      <c r="JP1" s="6"/>
+      <c r="JQ1" s="6"/>
+      <c r="JR1" s="6"/>
+      <c r="JS1" s="6"/>
+      <c r="JT1" s="6"/>
+      <c r="JU1" s="6"/>
+      <c r="JV1" s="6"/>
+      <c r="JW1" s="6"/>
+      <c r="JX1" s="6"/>
+      <c r="JY1" s="6"/>
+      <c r="JZ1" s="6"/>
+      <c r="KA1" s="6"/>
+      <c r="KB1" s="6"/>
+      <c r="KC1" s="6"/>
+      <c r="KD1" s="6"/>
+      <c r="KE1" s="6"/>
+      <c r="KF1" s="6"/>
+      <c r="KG1" s="6"/>
+      <c r="KH1" s="6"/>
+      <c r="KI1" s="6"/>
+      <c r="KJ1" s="6"/>
+      <c r="KK1" s="6"/>
+      <c r="KL1" s="6"/>
+      <c r="KM1" s="6"/>
+      <c r="KN1" s="6"/>
+      <c r="KO1" s="6"/>
+      <c r="KP1" s="6"/>
+      <c r="KQ1" s="6"/>
+      <c r="KR1" s="6"/>
+      <c r="KS1" s="6"/>
+      <c r="KT1" s="6"/>
+      <c r="KU1" s="6"/>
+      <c r="KV1" s="6"/>
+      <c r="KW1" s="6"/>
+      <c r="KX1" s="6"/>
+      <c r="KY1" s="6"/>
+      <c r="KZ1" s="6"/>
+      <c r="LA1" s="6"/>
+      <c r="LB1" s="6"/>
+      <c r="LC1" s="6"/>
+      <c r="LD1" s="6"/>
+      <c r="LE1" s="6"/>
+      <c r="LF1" s="6"/>
+      <c r="LG1" s="6"/>
+      <c r="LH1" s="6"/>
+      <c r="LI1" s="6"/>
+      <c r="LJ1" s="6"/>
+      <c r="LK1" s="6"/>
+      <c r="LL1" s="6"/>
+      <c r="LM1" s="6"/>
+      <c r="LN1" s="6"/>
+      <c r="LO1" s="6"/>
+      <c r="LP1" s="6"/>
+      <c r="LQ1" s="6"/>
+      <c r="LR1" s="6"/>
+      <c r="LS1" s="6"/>
+      <c r="LT1" s="6"/>
+      <c r="LU1" s="6"/>
+      <c r="LV1" s="6"/>
+      <c r="LW1" s="6"/>
+      <c r="LX1" s="6"/>
+      <c r="LY1" s="6"/>
+      <c r="LZ1" s="6"/>
+      <c r="MA1" s="6"/>
+      <c r="MB1" s="6"/>
+      <c r="MC1" s="6"/>
+      <c r="MD1" s="6"/>
+      <c r="ME1" s="6"/>
+      <c r="MF1" s="6"/>
+      <c r="MG1" s="6"/>
+      <c r="MH1" s="6"/>
+      <c r="MI1" s="6"/>
+      <c r="MJ1" s="6"/>
+      <c r="MK1" s="6"/>
+      <c r="ML1" s="6"/>
+      <c r="MM1" s="6"/>
+      <c r="MN1" s="6"/>
+      <c r="MO1" s="6"/>
+      <c r="MP1" s="6"/>
+      <c r="MQ1" s="6"/>
+      <c r="MR1" s="6"/>
+      <c r="MS1" s="6"/>
+      <c r="MT1" s="6"/>
+      <c r="MU1" s="6"/>
+      <c r="MV1" s="6"/>
+      <c r="MW1" s="6"/>
+      <c r="MX1" s="6"/>
+      <c r="MY1" s="6"/>
+      <c r="MZ1" s="6"/>
+      <c r="NA1" s="6"/>
+      <c r="NB1" s="6"/>
+      <c r="NC1" s="6"/>
+      <c r="ND1" s="6"/>
+      <c r="NE1" s="6"/>
+      <c r="NF1" s="6"/>
+      <c r="NG1" s="6"/>
+      <c r="NH1" s="6"/>
+      <c r="NI1" s="6"/>
+      <c r="NJ1" s="6"/>
+      <c r="NK1" s="6"/>
+      <c r="NL1" s="6"/>
+      <c r="NM1" s="6"/>
+      <c r="NN1" s="6"/>
+      <c r="NO1" s="6"/>
+      <c r="NP1" s="6"/>
+      <c r="NQ1" s="6"/>
+      <c r="NR1" s="6"/>
+      <c r="NS1" s="6"/>
+      <c r="NT1" s="6"/>
+      <c r="NU1" s="6"/>
+      <c r="NV1" s="6"/>
+      <c r="NW1" s="6"/>
+      <c r="NX1" s="6"/>
+      <c r="NY1" s="6"/>
+      <c r="NZ1" s="6"/>
+      <c r="OA1" s="6"/>
+      <c r="OB1" s="6"/>
+      <c r="OC1" s="6"/>
+      <c r="OD1" s="6"/>
+      <c r="OE1" s="6"/>
+      <c r="OF1" s="6"/>
+      <c r="OG1" s="6"/>
+      <c r="OH1" s="6"/>
+      <c r="OI1" s="6"/>
+      <c r="OJ1" s="6"/>
+      <c r="OK1" s="6"/>
+      <c r="OL1" s="6"/>
+      <c r="OM1" s="6"/>
+      <c r="ON1" s="6"/>
+      <c r="OO1" s="6"/>
+      <c r="OP1" s="6"/>
+      <c r="OQ1" s="6"/>
+      <c r="OR1" s="6"/>
+      <c r="OS1" s="6"/>
+      <c r="OT1" s="6"/>
+      <c r="OU1" s="6"/>
+      <c r="OV1" s="6"/>
+      <c r="OW1" s="6"/>
+      <c r="OX1" s="6"/>
+      <c r="OY1" s="6"/>
+      <c r="OZ1" s="6"/>
+      <c r="PA1" s="6"/>
+      <c r="PB1" s="6"/>
+      <c r="PC1" s="6"/>
+      <c r="PD1" s="6"/>
+      <c r="PE1" s="6"/>
+      <c r="PF1" s="6"/>
+      <c r="PG1" s="6"/>
+      <c r="PH1" s="6"/>
+      <c r="PI1" s="6"/>
+      <c r="PJ1" s="6"/>
+      <c r="PK1" s="6"/>
+      <c r="PL1" s="6"/>
+      <c r="PM1" s="6"/>
+      <c r="PN1" s="6"/>
+      <c r="PO1" s="6"/>
+      <c r="PP1" s="6"/>
+      <c r="PQ1" s="6"/>
+      <c r="PR1" s="6"/>
+      <c r="PS1" s="6"/>
+      <c r="PT1" s="6"/>
+      <c r="PU1" s="6"/>
+      <c r="PV1" s="6"/>
+      <c r="PW1" s="6"/>
+      <c r="PX1" s="6"/>
+      <c r="PY1" s="6"/>
+      <c r="PZ1" s="6"/>
+      <c r="QA1" s="6"/>
+      <c r="QB1" s="6"/>
+      <c r="QC1" s="6"/>
+      <c r="QD1" s="6"/>
+      <c r="QE1" s="6"/>
+      <c r="QF1" s="6"/>
+      <c r="QG1" s="6"/>
+      <c r="QH1" s="6"/>
+      <c r="QI1" s="6"/>
+      <c r="QJ1" s="6"/>
+      <c r="QK1" s="6"/>
+      <c r="QL1" s="6"/>
+      <c r="QM1" s="6"/>
+      <c r="QN1" s="6"/>
+      <c r="QO1" s="6"/>
+      <c r="QP1" s="6"/>
+      <c r="QQ1" s="6"/>
+      <c r="QR1" s="6"/>
+      <c r="QS1" s="6"/>
+      <c r="QT1" s="6"/>
+      <c r="QU1" s="6"/>
+      <c r="QV1" s="6"/>
+      <c r="QW1" s="6"/>
+      <c r="QX1" s="6"/>
+      <c r="QY1" s="6"/>
+      <c r="QZ1" s="6"/>
+      <c r="RA1" s="6"/>
+      <c r="RB1" s="6"/>
+      <c r="RC1" s="6"/>
+      <c r="RD1" s="6"/>
+      <c r="RE1" s="6"/>
+      <c r="RF1" s="6"/>
+      <c r="RG1" s="6"/>
+      <c r="RH1" s="6"/>
+      <c r="RI1" s="6"/>
+      <c r="RJ1" s="6"/>
+      <c r="RK1" s="6"/>
+      <c r="RL1" s="6"/>
+      <c r="RM1" s="6"/>
+      <c r="RN1" s="6"/>
+      <c r="RO1" s="6"/>
+      <c r="RP1" s="6"/>
+      <c r="RQ1" s="6"/>
+      <c r="RR1" s="6"/>
+      <c r="RS1" s="6"/>
+      <c r="RT1" s="6"/>
+      <c r="RU1" s="6"/>
+      <c r="RV1" s="6"/>
+      <c r="RW1" s="6"/>
+      <c r="RX1" s="6"/>
+      <c r="RY1" s="6"/>
+      <c r="RZ1" s="6"/>
+      <c r="SA1" s="6"/>
+      <c r="SB1" s="6"/>
+      <c r="SC1" s="6"/>
+      <c r="SD1" s="6"/>
+      <c r="SE1" s="6"/>
+      <c r="SF1" s="6"/>
+      <c r="SG1" s="6"/>
+      <c r="SH1" s="6"/>
+      <c r="SI1" s="6"/>
+      <c r="SJ1" s="6"/>
+      <c r="SK1" s="6"/>
+      <c r="SL1" s="6"/>
+      <c r="SM1" s="6"/>
+      <c r="SN1" s="6"/>
+      <c r="SO1" s="6"/>
+      <c r="SP1" s="6"/>
+      <c r="SQ1" s="6"/>
+      <c r="SR1" s="6"/>
+      <c r="SS1" s="6"/>
+      <c r="ST1" s="6"/>
+      <c r="SU1" s="6"/>
+      <c r="SV1" s="6"/>
+      <c r="SW1" s="6"/>
+      <c r="SX1" s="6"/>
+      <c r="SY1" s="6"/>
+      <c r="SZ1" s="6"/>
+      <c r="TA1" s="6"/>
+      <c r="TB1" s="6"/>
+      <c r="TC1" s="6"/>
+      <c r="TD1" s="6"/>
+      <c r="TE1" s="6"/>
+      <c r="TF1" s="6"/>
+      <c r="TG1" s="6"/>
+      <c r="TH1" s="6"/>
+      <c r="TI1" s="6"/>
+      <c r="TJ1" s="6"/>
+      <c r="TK1" s="6"/>
+      <c r="TL1" s="6"/>
+      <c r="TM1" s="6"/>
+      <c r="TN1" s="6"/>
+      <c r="TO1" s="6"/>
+      <c r="TP1" s="6"/>
+      <c r="TQ1" s="6"/>
+      <c r="TR1" s="6"/>
+      <c r="TS1" s="6"/>
+      <c r="TT1" s="6"/>
+      <c r="TU1" s="6"/>
+      <c r="TV1" s="6"/>
+      <c r="TW1" s="6"/>
+      <c r="TX1" s="6"/>
+      <c r="TY1" s="6"/>
+      <c r="TZ1" s="6"/>
+      <c r="UA1" s="6"/>
+      <c r="UB1" s="6"/>
+      <c r="UC1" s="6"/>
+      <c r="UD1" s="6"/>
+      <c r="UE1" s="6"/>
+      <c r="UF1" s="6"/>
+      <c r="UG1" s="6"/>
+      <c r="UH1" s="6"/>
+      <c r="UI1" s="6"/>
+      <c r="UJ1" s="6"/>
+      <c r="UK1" s="6"/>
+      <c r="UL1" s="6"/>
+      <c r="UM1" s="6"/>
+      <c r="UN1" s="6"/>
+      <c r="UO1" s="6"/>
+      <c r="UP1" s="6"/>
+      <c r="UQ1" s="6"/>
+      <c r="UR1" s="6"/>
+      <c r="US1" s="6"/>
+      <c r="UT1" s="6"/>
+      <c r="UU1" s="6"/>
+      <c r="UV1" s="6"/>
+      <c r="UW1" s="6"/>
+      <c r="UX1" s="6"/>
+      <c r="UY1" s="6"/>
+      <c r="UZ1" s="6"/>
+      <c r="VA1" s="6"/>
+      <c r="VB1" s="6"/>
+      <c r="VC1" s="6"/>
+      <c r="VD1" s="6"/>
+      <c r="VE1" s="6"/>
+      <c r="VF1" s="6"/>
+      <c r="VG1" s="6"/>
+      <c r="VH1" s="6"/>
+      <c r="VI1" s="6"/>
+      <c r="VJ1" s="6"/>
+      <c r="VK1" s="6"/>
+      <c r="VL1" s="6"/>
+      <c r="VM1" s="6"/>
+      <c r="VN1" s="6"/>
+      <c r="VO1" s="6"/>
+      <c r="VP1" s="6"/>
+      <c r="VQ1" s="6"/>
+      <c r="VR1" s="6"/>
+      <c r="VS1" s="6"/>
+      <c r="VT1" s="6"/>
+      <c r="VU1" s="6"/>
+      <c r="VV1" s="6"/>
+      <c r="VW1" s="6"/>
+      <c r="VX1" s="6"/>
+      <c r="VY1" s="6"/>
+      <c r="VZ1" s="6"/>
+      <c r="WA1" s="6"/>
+      <c r="WB1" s="6"/>
+      <c r="WC1" s="6"/>
+      <c r="WD1" s="6"/>
+      <c r="WE1" s="6"/>
+      <c r="WF1" s="6"/>
+      <c r="WG1" s="6"/>
+      <c r="WH1" s="6"/>
+      <c r="WI1" s="6"/>
+      <c r="WJ1" s="6"/>
+      <c r="WK1" s="6"/>
+      <c r="WL1" s="6"/>
+      <c r="WM1" s="6"/>
+      <c r="WN1" s="6"/>
+      <c r="WO1" s="6"/>
+      <c r="WP1" s="6"/>
+      <c r="WQ1" s="6"/>
+      <c r="WR1" s="6"/>
+      <c r="WS1" s="6"/>
+      <c r="WT1" s="6"/>
+      <c r="WU1" s="6"/>
+      <c r="WV1" s="6"/>
+      <c r="WW1" s="6"/>
+      <c r="WX1" s="6"/>
+      <c r="WY1" s="6"/>
+      <c r="WZ1" s="6"/>
+      <c r="XA1" s="6"/>
+      <c r="XB1" s="6"/>
+      <c r="XC1" s="6"/>
+      <c r="XD1" s="6"/>
+      <c r="XE1" s="6"/>
+      <c r="XF1" s="6"/>
+      <c r="XG1" s="6"/>
+      <c r="XH1" s="6"/>
+      <c r="XI1" s="6"/>
+      <c r="XJ1" s="6"/>
+      <c r="XK1" s="6"/>
+      <c r="XL1" s="6"/>
+      <c r="XM1" s="6"/>
+      <c r="XN1" s="6"/>
+      <c r="XO1" s="6"/>
+      <c r="XP1" s="6"/>
+      <c r="XQ1" s="6"/>
+      <c r="XR1" s="6"/>
+      <c r="XS1" s="6"/>
+      <c r="XT1" s="6"/>
+      <c r="XU1" s="6"/>
+      <c r="XV1" s="6"/>
+      <c r="XW1" s="6"/>
+      <c r="XX1" s="6"/>
+      <c r="XY1" s="6"/>
+      <c r="XZ1" s="6"/>
+      <c r="YA1" s="6"/>
+      <c r="YB1" s="6"/>
+      <c r="YC1" s="6"/>
+      <c r="YD1" s="6"/>
+      <c r="YE1" s="6"/>
+      <c r="YF1" s="6"/>
+      <c r="YG1" s="6"/>
+      <c r="YH1" s="6"/>
+      <c r="YI1" s="6"/>
+      <c r="YJ1" s="6"/>
+      <c r="YK1" s="6"/>
+      <c r="YL1" s="6"/>
+      <c r="YM1" s="6"/>
+      <c r="YN1" s="6"/>
+      <c r="YO1" s="6"/>
+      <c r="YP1" s="6"/>
+      <c r="YQ1" s="6"/>
+      <c r="YR1" s="6"/>
+      <c r="YS1" s="6"/>
+      <c r="YT1" s="6"/>
+      <c r="YU1" s="6"/>
+      <c r="YV1" s="6"/>
+      <c r="YW1" s="6"/>
+      <c r="YX1" s="6"/>
+      <c r="YY1" s="6"/>
+      <c r="YZ1" s="6"/>
+      <c r="ZA1" s="6"/>
+      <c r="ZB1" s="6"/>
+      <c r="ZC1" s="6"/>
+      <c r="ZD1" s="6"/>
+      <c r="ZE1" s="6"/>
+      <c r="ZF1" s="6"/>
+      <c r="ZG1" s="6"/>
+      <c r="ZH1" s="6"/>
+      <c r="ZI1" s="6"/>
+      <c r="ZJ1" s="6"/>
+      <c r="ZK1" s="6"/>
+      <c r="ZL1" s="6"/>
+      <c r="ZM1" s="6"/>
+      <c r="ZN1" s="6"/>
+      <c r="ZO1" s="6"/>
+      <c r="ZP1" s="6"/>
+      <c r="ZQ1" s="6"/>
+      <c r="ZR1" s="6"/>
+      <c r="ZS1" s="6"/>
+      <c r="ZT1" s="6"/>
+      <c r="ZU1" s="6"/>
+      <c r="ZV1" s="6"/>
+      <c r="ZW1" s="6"/>
+      <c r="ZX1" s="6"/>
+      <c r="ZY1" s="6"/>
+      <c r="ZZ1" s="6"/>
+      <c r="AAA1" s="6"/>
+      <c r="AAB1" s="6"/>
+      <c r="AAC1" s="6"/>
+      <c r="AAD1" s="6"/>
+      <c r="AAE1" s="6"/>
+      <c r="AAF1" s="6"/>
+      <c r="AAG1" s="6"/>
+      <c r="AAH1" s="6"/>
+      <c r="AAI1" s="6"/>
+      <c r="AAJ1" s="6"/>
+      <c r="AAK1" s="6"/>
+      <c r="AAL1" s="6"/>
+      <c r="AAM1" s="6"/>
+      <c r="AAN1" s="6"/>
+      <c r="AAO1" s="6"/>
+      <c r="AAP1" s="6"/>
+      <c r="AAQ1" s="6"/>
+      <c r="AAR1" s="6"/>
+      <c r="AAS1" s="6"/>
+      <c r="AAT1" s="6"/>
+      <c r="AAU1" s="6"/>
+      <c r="AAV1" s="6"/>
+      <c r="AAW1" s="6"/>
+      <c r="AAX1" s="6"/>
+      <c r="AAY1" s="6"/>
+      <c r="AAZ1" s="6"/>
+      <c r="ABA1" s="6"/>
+      <c r="ABB1" s="6"/>
+      <c r="ABC1" s="6"/>
+      <c r="ABD1" s="6"/>
+      <c r="ABE1" s="6"/>
+      <c r="ABF1" s="6"/>
+      <c r="ABG1" s="6"/>
+      <c r="ABH1" s="6"/>
+      <c r="ABI1" s="6"/>
+      <c r="ABJ1" s="6"/>
+      <c r="ABK1" s="6"/>
+      <c r="ABL1" s="6"/>
+      <c r="ABM1" s="6"/>
+      <c r="ABN1" s="6"/>
+      <c r="ABO1" s="6"/>
+      <c r="ABP1" s="6"/>
+      <c r="ABQ1" s="6"/>
+      <c r="ABR1" s="6"/>
+      <c r="ABS1" s="6"/>
+      <c r="ABT1" s="6"/>
+      <c r="ABU1" s="6"/>
+      <c r="ABV1" s="6"/>
+      <c r="ABW1" s="6"/>
+      <c r="ABX1" s="6"/>
+      <c r="ABY1" s="6"/>
+      <c r="ABZ1" s="6"/>
+      <c r="ACA1" s="6"/>
+      <c r="ACB1" s="6"/>
+      <c r="ACC1" s="6"/>
+      <c r="ACD1" s="6"/>
+      <c r="ACE1" s="6"/>
+      <c r="ACF1" s="6"/>
+      <c r="ACG1" s="6"/>
+      <c r="ACH1" s="6"/>
+      <c r="ACI1" s="6"/>
+      <c r="ACJ1" s="6"/>
+      <c r="ACK1" s="6"/>
+      <c r="ACL1" s="6"/>
+      <c r="ACM1" s="6"/>
+      <c r="ACN1" s="6"/>
+      <c r="ACO1" s="6"/>
+      <c r="ACP1" s="6"/>
+      <c r="ACQ1" s="6"/>
+      <c r="ACR1" s="6"/>
+      <c r="ACS1" s="6"/>
+      <c r="ACT1" s="6"/>
+      <c r="ACU1" s="6"/>
+      <c r="ACV1" s="6"/>
+      <c r="ACW1" s="6"/>
+      <c r="ACX1" s="6"/>
+      <c r="ACY1" s="6"/>
+      <c r="ACZ1" s="6"/>
+      <c r="ADA1" s="6"/>
+      <c r="ADB1" s="6"/>
+      <c r="ADC1" s="6"/>
+      <c r="ADD1" s="6"/>
+      <c r="ADE1" s="6"/>
+      <c r="ADF1" s="6"/>
+      <c r="ADG1" s="6"/>
+      <c r="ADH1" s="6"/>
+      <c r="ADI1" s="6"/>
+      <c r="ADJ1" s="6"/>
+      <c r="ADK1" s="6"/>
+      <c r="ADL1" s="6"/>
+      <c r="ADM1" s="6"/>
+      <c r="ADN1" s="6"/>
+      <c r="ADO1" s="6"/>
+      <c r="ADP1" s="6"/>
+      <c r="ADQ1" s="6"/>
+      <c r="ADR1" s="6"/>
+      <c r="ADS1" s="6"/>
+      <c r="ADT1" s="6"/>
+      <c r="ADU1" s="6"/>
+      <c r="ADV1" s="6"/>
+      <c r="ADW1" s="6"/>
+      <c r="ADX1" s="6"/>
+      <c r="ADY1" s="6"/>
+      <c r="ADZ1" s="6"/>
+      <c r="AEA1" s="6"/>
+      <c r="AEB1" s="6"/>
+      <c r="AEC1" s="6"/>
+      <c r="AED1" s="6"/>
+      <c r="AEE1" s="6"/>
+      <c r="AEF1" s="6"/>
+      <c r="AEG1" s="6"/>
+      <c r="AEH1" s="6"/>
+      <c r="AEI1" s="6"/>
+      <c r="AEJ1" s="6"/>
+      <c r="AEK1" s="6"/>
+      <c r="AEL1" s="6"/>
+      <c r="AEM1" s="6"/>
+      <c r="AEN1" s="6"/>
+      <c r="AEO1" s="6"/>
+      <c r="AEP1" s="6"/>
+      <c r="AEQ1" s="6"/>
+      <c r="AER1" s="6"/>
+      <c r="AES1" s="6"/>
+      <c r="AET1" s="6"/>
+      <c r="AEU1" s="6"/>
+      <c r="AEV1" s="6"/>
+      <c r="AEW1" s="6"/>
+      <c r="AEX1" s="6"/>
+      <c r="AEY1" s="6"/>
+      <c r="AEZ1" s="6"/>
+      <c r="AFA1" s="6"/>
+      <c r="AFB1" s="6"/>
+      <c r="AFC1" s="6"/>
+      <c r="AFD1" s="6"/>
+      <c r="AFE1" s="6"/>
+      <c r="AFF1" s="6"/>
+      <c r="AFG1" s="6"/>
+      <c r="AFH1" s="6"/>
+      <c r="AFI1" s="6"/>
+      <c r="AFJ1" s="6"/>
+      <c r="AFK1" s="6"/>
+      <c r="AFL1" s="6"/>
+      <c r="AFM1" s="6"/>
+      <c r="AFN1" s="6"/>
+      <c r="AFO1" s="6"/>
+      <c r="AFP1" s="6"/>
+      <c r="AFQ1" s="6"/>
+      <c r="AFR1" s="6"/>
+      <c r="AFS1" s="6"/>
+      <c r="AFT1" s="6"/>
+      <c r="AFU1" s="6"/>
+      <c r="AFV1" s="6"/>
+      <c r="AFW1" s="6"/>
+      <c r="AFX1" s="6"/>
+      <c r="AFY1" s="6"/>
+      <c r="AFZ1" s="6"/>
+      <c r="AGA1" s="6"/>
+      <c r="AGB1" s="6"/>
+      <c r="AGC1" s="6"/>
+      <c r="AGD1" s="6"/>
+      <c r="AGE1" s="6"/>
+      <c r="AGF1" s="6"/>
+      <c r="AGG1" s="6"/>
+      <c r="AGH1" s="6"/>
+      <c r="AGI1" s="6"/>
+      <c r="AGJ1" s="6"/>
+      <c r="AGK1" s="6"/>
+      <c r="AGL1" s="6"/>
+      <c r="AGM1" s="6"/>
+      <c r="AGN1" s="6"/>
+      <c r="AGO1" s="6"/>
+      <c r="AGP1" s="6"/>
+      <c r="AGQ1" s="6"/>
+      <c r="AGR1" s="6"/>
+      <c r="AGS1" s="6"/>
+      <c r="AGT1" s="6"/>
+      <c r="AGU1" s="6"/>
+      <c r="AGV1" s="6"/>
+      <c r="AGW1" s="6"/>
+      <c r="AGX1" s="6"/>
+      <c r="AGY1" s="6"/>
+      <c r="AGZ1" s="6"/>
+      <c r="AHA1" s="6"/>
+      <c r="AHB1" s="6"/>
+      <c r="AHC1" s="6"/>
+      <c r="AHD1" s="6"/>
+      <c r="AHE1" s="6"/>
+      <c r="AHF1" s="6"/>
+      <c r="AHG1" s="6"/>
+      <c r="AHH1" s="6"/>
+      <c r="AHI1" s="6"/>
+      <c r="AHJ1" s="6"/>
+      <c r="AHK1" s="6"/>
+      <c r="AHL1" s="6"/>
+      <c r="AHM1" s="6"/>
+      <c r="AHN1" s="6"/>
+      <c r="AHO1" s="6"/>
+      <c r="AHP1" s="6"/>
+      <c r="AHQ1" s="6"/>
+      <c r="AHR1" s="6"/>
+      <c r="AHS1" s="6"/>
+      <c r="AHT1" s="6"/>
+      <c r="AHU1" s="6"/>
+      <c r="AHV1" s="6"/>
+      <c r="AHW1" s="6"/>
+      <c r="AHX1" s="6"/>
+      <c r="AHY1" s="6"/>
+      <c r="AHZ1" s="6"/>
+      <c r="AIA1" s="6"/>
+      <c r="AIB1" s="6"/>
+      <c r="AIC1" s="6"/>
+      <c r="AID1" s="6"/>
+      <c r="AIE1" s="6"/>
+      <c r="AIF1" s="6"/>
+      <c r="AIG1" s="6"/>
+      <c r="AIH1" s="6"/>
+      <c r="AII1" s="6"/>
+      <c r="AIJ1" s="6"/>
+      <c r="AIK1" s="6"/>
+      <c r="AIL1" s="6"/>
+      <c r="AIM1" s="6"/>
+      <c r="AIN1" s="6"/>
+      <c r="AIO1" s="6"/>
+      <c r="AIP1" s="6"/>
+      <c r="AIQ1" s="6"/>
+      <c r="AIR1" s="6"/>
+      <c r="AIS1" s="6"/>
+      <c r="AIT1" s="6"/>
+      <c r="AIU1" s="6"/>
+      <c r="AIV1" s="6"/>
+      <c r="AIW1" s="6"/>
+      <c r="AIX1" s="6"/>
+      <c r="AIY1" s="6"/>
+      <c r="AIZ1" s="6"/>
+      <c r="AJA1" s="6"/>
+      <c r="AJB1" s="6"/>
+      <c r="AJC1" s="6"/>
+      <c r="AJD1" s="6"/>
+      <c r="AJE1" s="6"/>
+      <c r="AJF1" s="6"/>
+      <c r="AJG1" s="6"/>
+      <c r="AJH1" s="6"/>
+      <c r="AJI1" s="6"/>
+      <c r="AJJ1" s="6"/>
+      <c r="AJK1" s="6"/>
+      <c r="AJL1" s="6"/>
+      <c r="AJM1" s="6"/>
+      <c r="AJN1" s="6"/>
+      <c r="AJO1" s="6"/>
+      <c r="AJP1" s="6"/>
+      <c r="AJQ1" s="6"/>
+      <c r="AJR1" s="6"/>
+      <c r="AJS1" s="6"/>
+      <c r="AJT1" s="6"/>
+      <c r="AJU1" s="6"/>
+      <c r="AJV1" s="6"/>
+      <c r="AJW1" s="6"/>
+      <c r="AJX1" s="6"/>
+      <c r="AJY1" s="6"/>
+      <c r="AJZ1" s="6"/>
+      <c r="AKA1" s="6"/>
+      <c r="AKB1" s="6"/>
+      <c r="AKC1" s="6"/>
+      <c r="AKD1" s="6"/>
+      <c r="AKE1" s="6"/>
+      <c r="AKF1" s="6"/>
+      <c r="AKG1" s="6"/>
+      <c r="AKH1" s="6"/>
+      <c r="AKI1" s="6"/>
+      <c r="AKJ1" s="6"/>
+      <c r="AKK1" s="6"/>
+      <c r="AKL1" s="6"/>
+      <c r="AKM1" s="6"/>
+      <c r="AKN1" s="6"/>
+      <c r="AKO1" s="6"/>
+      <c r="AKP1" s="6"/>
+      <c r="AKQ1" s="6"/>
+      <c r="AKR1" s="6"/>
+      <c r="AKS1" s="6"/>
+      <c r="AKT1" s="6"/>
+      <c r="AKU1" s="6"/>
+      <c r="AKV1" s="6"/>
+      <c r="AKW1" s="6"/>
+      <c r="AKX1" s="6"/>
+      <c r="AKY1" s="6"/>
+      <c r="AKZ1" s="6"/>
+      <c r="ALA1" s="6"/>
+      <c r="ALB1" s="6"/>
+      <c r="ALC1" s="6"/>
+      <c r="ALD1" s="6"/>
+      <c r="ALE1" s="6"/>
+      <c r="ALF1" s="6"/>
+      <c r="ALG1" s="6"/>
+      <c r="ALH1" s="6"/>
+      <c r="ALI1" s="6"/>
+      <c r="ALJ1" s="6"/>
+      <c r="ALK1" s="6"/>
+      <c r="ALL1" s="6"/>
+      <c r="ALM1" s="6"/>
+      <c r="ALN1" s="6"/>
+      <c r="ALO1" s="6"/>
+      <c r="ALP1" s="6"/>
+      <c r="ALQ1" s="6"/>
+      <c r="ALR1" s="6"/>
+      <c r="ALS1" s="6"/>
+      <c r="ALT1" s="6"/>
+      <c r="ALU1" s="6"/>
+      <c r="ALV1" s="6"/>
+      <c r="ALW1" s="6"/>
+      <c r="ALX1" s="6"/>
+      <c r="ALY1" s="6"/>
+      <c r="ALZ1" s="6"/>
+      <c r="AMA1" s="6"/>
+      <c r="AMB1" s="6"/>
+      <c r="AMC1" s="6"/>
+      <c r="AMD1" s="6"/>
+      <c r="AME1" s="6"/>
+      <c r="AMF1" s="6"/>
+      <c r="AMG1" s="6"/>
+      <c r="AMH1" s="6"/>
+      <c r="AMI1" s="6"/>
+      <c r="AMJ1" s="6"/>
+    </row>
+    <row r="2" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>922</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>923</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>913</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>920</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>915</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>916</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>912</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>930</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>931</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>932</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>927</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>914</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
+        <v>1</v>
+      </c>
+      <c r="B35" s="6">
+        <v>1</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
+        <v>2</v>
+      </c>
+      <c r="B36" s="6">
+        <v>2</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
+        <v>3</v>
+      </c>
+      <c r="B37" s="6">
+        <v>3</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
+        <v>4</v>
+      </c>
+      <c r="B38" s="6">
+        <v>4</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
+        <v>5</v>
+      </c>
+      <c r="B39" s="6">
+        <v>5</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>907</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>933</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:E50">
+    <sortCondition ref="C2:C50"/>
+    <sortCondition ref="B2:B50"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AMJ93"/>
   <sheetViews>
@@ -24206,7 +26587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AMJ57"/>
   <sheetViews>
@@ -24881,522 +27262,4 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AMJ39"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1024" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>2</v>
-      </c>
-      <c r="B25" s="1">
-        <v>3</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>3</v>
-      </c>
-      <c r="B26" s="1">
-        <v>4</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>1</v>
-      </c>
-      <c r="B27" s="1">
-        <v>5</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:AMJ39">
-    <sortCondition ref="C2:C39"/>
-    <sortCondition ref="B2:B39"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
 </file>
--- a/OrthographyProfiles/OrthographyProfiles.xlsx
+++ b/OrthographyProfiles/OrthographyProfiles.xlsx
@@ -8,44 +8,45 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/auderset/Documents/GitHub/mixteca/OrthographyProfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6551BBF5-3C75-7944-A530-74F54367986B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF2F082-C502-D24C-9191-88A4D889F773}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="460" windowWidth="21600" windowHeight="16380" tabRatio="500" firstSheet="19" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5120" yWindow="6360" windowWidth="21600" windowHeight="16380" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alexander1980_alac11" sheetId="1" r:id="rId1"/>
-    <sheet name="auderset-hernandez2020_dura11" sheetId="2" r:id="rId2"/>
-    <sheet name="bradley1970_jica11" sheetId="3" r:id="rId3"/>
-    <sheet name="daly1977_peno11" sheetId="4" r:id="rId4"/>
-    <sheet name="dyk-stoudt1965_gran11" sheetId="5" r:id="rId5"/>
-    <sheet name="farris1992_yoso11" sheetId="6" r:id="rId6"/>
-    <sheet name="good1979_chic12" sheetId="25" r:id="rId7"/>
-    <sheet name="johnson1988_jami11" sheetId="7" r:id="rId8"/>
-    <sheet name="macaulay1996_chal11" sheetId="8" r:id="rId9"/>
-    <sheet name="mak1953_gran11-atat11" sheetId="9" r:id="rId10"/>
-    <sheet name="mak1958_ocot11" sheetId="10" r:id="rId11"/>
-    <sheet name="north-shields1976_prog12" sheetId="11" r:id="rId12"/>
-    <sheet name="overholt1961_metl11" sheetId="12" r:id="rId13"/>
-    <sheet name="pankratz-pike1967_ayut11" sheetId="13" r:id="rId14"/>
-    <sheet name="pensinger1974_jami11" sheetId="14" r:id="rId15"/>
-    <sheet name="pike-cowan1967_huaj11" sheetId="15" r:id="rId16"/>
-    <sheet name="pike-ibach1978_mixt11" sheetId="16" r:id="rId17"/>
-    <sheet name="pike-oram1976_diux11" sheetId="17" r:id="rId18"/>
-    <sheet name="pike-small1974_coat11" sheetId="18" r:id="rId19"/>
-    <sheet name="schultze-jena1938_cahu11" sheetId="19" r:id="rId20"/>
-    <sheet name="shields1988_prog12" sheetId="20" r:id="rId21"/>
-    <sheet name="stark1986_colo11" sheetId="26" r:id="rId22"/>
-    <sheet name="zylstra1980_alac11" sheetId="21" r:id="rId23"/>
-    <sheet name="zylstra1991_alac11" sheetId="22" r:id="rId24"/>
-    <sheet name="durr1987" sheetId="23" r:id="rId25"/>
-    <sheet name="josserand1983" sheetId="24" r:id="rId26"/>
+    <sheet name="amith2020_yolo11" sheetId="27" r:id="rId2"/>
+    <sheet name="auderset-hernandez2020_dura11" sheetId="2" r:id="rId3"/>
+    <sheet name="bradley1970_jica11" sheetId="3" r:id="rId4"/>
+    <sheet name="daly1977_peno11" sheetId="4" r:id="rId5"/>
+    <sheet name="dyk-stoudt1965_gran11" sheetId="5" r:id="rId6"/>
+    <sheet name="farris1992_yoso11" sheetId="6" r:id="rId7"/>
+    <sheet name="good1979_chic12" sheetId="25" r:id="rId8"/>
+    <sheet name="johnson1988_jami11" sheetId="7" r:id="rId9"/>
+    <sheet name="macaulay1996_chal11" sheetId="8" r:id="rId10"/>
+    <sheet name="mak1953_gran11-atat11" sheetId="9" r:id="rId11"/>
+    <sheet name="mak1958_ocot11" sheetId="10" r:id="rId12"/>
+    <sheet name="north-shields1976_prog12" sheetId="11" r:id="rId13"/>
+    <sheet name="overholt1961_metl11" sheetId="12" r:id="rId14"/>
+    <sheet name="pankratz-pike1967_ayut11" sheetId="13" r:id="rId15"/>
+    <sheet name="pensinger1974_jami11" sheetId="14" r:id="rId16"/>
+    <sheet name="pike-cowan1967_huaj11" sheetId="15" r:id="rId17"/>
+    <sheet name="pike-ibach1978_mixt11" sheetId="16" r:id="rId18"/>
+    <sheet name="pike-oram1976_diux11" sheetId="17" r:id="rId19"/>
+    <sheet name="pike-small1974_coat11" sheetId="18" r:id="rId20"/>
+    <sheet name="schultze-jena1938_cahu11" sheetId="19" r:id="rId21"/>
+    <sheet name="shields1988_prog12" sheetId="20" r:id="rId22"/>
+    <sheet name="stark1986_colo11" sheetId="26" r:id="rId23"/>
+    <sheet name="zylstra1980_alac11" sheetId="21" r:id="rId24"/>
+    <sheet name="zylstra1991_alac11" sheetId="22" r:id="rId25"/>
+    <sheet name="durr1987" sheetId="23" r:id="rId26"/>
+    <sheet name="josserand1983" sheetId="24" r:id="rId27"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">alexander1980_alac11!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2">bradley1970_jica11!$A$1:$E$53</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">daly1977_peno11!$B$1:$B$168</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4">'dyk-stoudt1965_gran11'!$B$1:$B$111</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'pike-ibach1978_mixt11'!$A$1:$E$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3">bradley1970_jica11!$A$1:$E$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">daly1977_peno11!$B$1:$B$168</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5">'dyk-stoudt1965_gran11'!$B$1:$B$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'pike-ibach1978_mixt11'!$A$1:$E$39</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5767" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5772" uniqueCount="935">
   <si>
     <t>Grapheme</t>
   </si>
@@ -4579,6 +4580,683 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:AMJ57"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1024" width="11.5" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AMJ39"/>
   <sheetViews>
@@ -5096,7 +5774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AMJ36"/>
   <sheetViews>
@@ -5532,7 +6210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AMJ104"/>
   <sheetViews>
@@ -6792,7 +7470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AMJ51"/>
   <sheetViews>
@@ -7423,7 +8101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AMJ35"/>
   <sheetViews>
@@ -7905,7 +8583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:AMJ109"/>
   <sheetViews>
@@ -9172,7 +9850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AMJ35"/>
   <sheetViews>
@@ -9613,7 +10291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:AMJ36"/>
   <sheetViews>
@@ -10055,7 +10733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:AMJ55"/>
   <sheetViews>
@@ -10690,7 +11368,42 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE69F2F-0474-D14C-A876-C35028168AA3}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:AMJ67"/>
   <sheetViews>
@@ -12543,1136 +13256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMJ98"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1024" width="11.5" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:E98">
-    <sortCondition ref="C2:C98"/>
-    <sortCondition ref="B2:B98"/>
-  </sortState>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:AMJ39"/>
   <sheetViews>
@@ -14137,7 +13721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:AMJ98"/>
   <sheetViews>
@@ -15250,11 +14834,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50BDDB5B-0B55-A64B-84C7-13D4CFC17C1A}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -15285,7 +14869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:AMJ50"/>
   <sheetViews>
@@ -15876,7 +15460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:AMJ97"/>
   <sheetViews>
@@ -16987,7 +16571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:AMJ90"/>
   <sheetViews>
@@ -18441,7 +18025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:AMJ19"/>
   <sheetViews>
@@ -18663,6 +18247,1135 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMJ98"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1024" width="11.5" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:E98">
+    <sortCondition ref="C2:C98"/>
+    <sortCondition ref="B2:B98"/>
+  </sortState>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ53"/>
   <sheetViews>
@@ -19327,7 +20040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ168"/>
   <sheetViews>
@@ -21223,7 +21936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ111"/>
   <sheetViews>
@@ -22482,7 +23195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMJ116"/>
   <sheetViews>
@@ -23797,7 +24510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3DC8BB-3CD1-C443-B76D-FAD255D7212D}">
   <dimension ref="A1:AMJ50"/>
   <sheetViews>
@@ -25522,7 +26235,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AMJ93"/>
   <sheetViews>
@@ -26585,681 +27298,4 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AMJ57"/>
-  <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1024" width="11.5" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>